--- a/Testing Spreadsheet v1.0 OrderReceipt.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="16560" windowHeight="6350" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-1240" yWindow="880" windowWidth="27640" windowHeight="13940" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,12 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -406,12 +411,264 @@
   <si>
     <t>Moderate</t>
   </si>
+  <si>
+    <t>The Order receipt should include a list of the order items</t>
+  </si>
+  <si>
+    <t>4.1.34</t>
+  </si>
+  <si>
+    <t>The Order receipt should include a list of the order items including extras</t>
+  </si>
+  <si>
+    <t>The Order receipt should include a list of the order items including individual prices</t>
+  </si>
+  <si>
+    <t>The Order receipt should include the total price</t>
+  </si>
+  <si>
+    <t>The Order receipt should include a unique order reference</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the items placed on order</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_1</t>
+  </si>
+  <si>
+    <t>Adam Hale</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_1</t>
+  </si>
+  <si>
+    <t>Classic deluxe</t>
+  </si>
+  <si>
+    <t>automated selenium test</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time, take user to the order receipt</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_2</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_3</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_4</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_5</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_6</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_2</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_3</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_4</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_6</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_5</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the items placed on order, specifically looking to see if it records the additional extras</t>
+  </si>
+  <si>
+    <t>Have to have already placed an order and selected collection time to see the order receipt</t>
+  </si>
+  <si>
+    <t>Cheese pizza with Olives, Pepperoni, Peppers and Onions as extras</t>
+  </si>
+  <si>
+    <t>Having added a plain cheese pizza to the basket with Olives, pepperoni, peppers and onions as extras and confirmed the collection time, take user to the order receipt</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza with peppers and onions as extras</t>
+  </si>
+  <si>
+    <t>Order receipt will show item in the receipt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order receipt will show item in the receipt alongside the extras selected </t>
+  </si>
+  <si>
+    <t>Order receipt will show individual prices for each item, including extras, that was ordered</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Individual prices are not shown for any item, only the total pricefor the order is.</t>
+  </si>
+  <si>
+    <t>OrderPage_DefectID_TCase_3</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains invididual prices for each item that have been ordered</t>
+  </si>
+  <si>
+    <t>Classic deluxe with olives</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time, take user to the order receipt</t>
+  </si>
+  <si>
+    <t>Order receipt will show the total price for all items that have been ordered</t>
+  </si>
+  <si>
+    <t>To test that the order receipt contains the total price for all items that have been ordered</t>
+  </si>
+  <si>
+    <t>Cheese pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order receipt will show the date and time that the order has been placed for collection </t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect now</t>
+  </si>
+  <si>
+    <t>The Order receipt should include the confirmed date and time for collection having selected the now option</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_7</t>
+  </si>
+  <si>
+    <t>OrderPage_DefectID_TCase_5</t>
+  </si>
+  <si>
+    <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it I infact 30 minutes. This has been recorded through the automated Selenium test.</t>
+  </si>
+  <si>
+    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection</t>
+  </si>
+  <si>
+    <t>To test that the order receipt includes the date and time that the order has been placed for collection if selecting to collect later</t>
+  </si>
+  <si>
+    <t>Classic deluxe with pepperoni</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting when, take user to the order receipt</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with no extras and confirmed the collection time as now, take user to the order receipt</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_8</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_9</t>
+  </si>
+  <si>
+    <t>OrderPage_TConn_10</t>
+  </si>
+  <si>
+    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a date that has already passed</t>
+  </si>
+  <si>
+    <t>The Order receipt should include the confirmed date and time for collection having selected the later option for collection but choosing a time that has already passed</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_7</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a date that has passed, that it does not progress to the order receipt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order receipt will not be generated until valid date is input </t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_8</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket with extras and confirmed the collection time as later and selecting a time that has passed, that it does not progress to the order receipt</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_9</t>
+  </si>
+  <si>
+    <t>The Order receipt should include a unique order reference different to the test before</t>
+  </si>
+  <si>
+    <t>To test that the system does not progress to the order receipt</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_1</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_2</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_3</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_4</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_5</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_6</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_7</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it </t>
+  </si>
+  <si>
+    <t>Order receipt will have a unique order reference</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_9</t>
+  </si>
+  <si>
+    <t>OrderReceipt_TProc_10</t>
+  </si>
+  <si>
+    <t>Having added an order to the basket and confirming valid collection details, the order receipt will have a unique ordering reference on it comparing it to the prevoius result</t>
+  </si>
+  <si>
+    <t>Meat Extravaganza with peppers</t>
+  </si>
+  <si>
+    <t>OrderPage_TCase_10</t>
+  </si>
+  <si>
+    <t>OrderPage_DefectID_TCase_10</t>
+  </si>
+  <si>
+    <t>This is the same order reference as the prevois test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference  on the order receipt that is different to the previous Test Case</t>
+  </si>
+  <si>
+    <t>To test that the system provides a unique order reference on the order receipt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +760,35 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -588,10 +874,212 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -627,9 +1115,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -677,8 +1162,222 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="203">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -714,7 +1413,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -795,13 +1494,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +1538,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -891,19 +1590,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +1617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="50486272"/>
-        <c:axId val="50496640"/>
+        <c:axId val="2129098200"/>
+        <c:axId val="2129101144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50486272"/>
+        <c:axId val="2129098200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +1630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50496640"/>
+        <c:crossAx val="2129101144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -939,7 +1638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50496640"/>
+        <c:axId val="2129101144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50486272"/>
+        <c:crossAx val="2129098200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,12 +2024,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1348,134 +2047,220 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="25" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:9" ht="35.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:9" ht="35.5" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:9" ht="28">
+      <c r="A4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:9" ht="23">
+      <c r="A5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:9" ht="28">
+      <c r="A6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:9" ht="28">
+      <c r="A7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:9" ht="42">
+      <c r="A8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="42">
+      <c r="A9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28">
+      <c r="A11" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1488,98 +2273,119 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" customWidth="1"/>
-    <col min="15" max="15" width="41.81640625" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="65.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" ht="26">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="12"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:26" ht="52">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1591,15 +2397,34 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="27"/>
+    <row r="3" spans="1:26" ht="65">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1607,41 +2432,89 @@
       <c r="N3" s="3"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10"/>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+    <row r="4" spans="1:26" ht="52">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="33">
+        <v>42074</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Z4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="14"/>
+    <row r="5" spans="1:26" ht="52">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1650,34 +2523,82 @@
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+    <row r="6" spans="1:26" ht="65">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="33">
+        <v>42074</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="14"/>
+    <row r="7" spans="1:26" ht="65">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1689,16 +2610,34 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="10"/>
+    <row r="8" spans="1:26" ht="52">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="4"/>
       <c r="L8" s="10"/>
@@ -1709,21 +2648,39 @@
       <c r="T8" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="52">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="4"/>
       <c r="L9" s="10"/>
@@ -1734,17 +2691,39 @@
       <c r="T9" t="s">
         <v>25</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="31">
         <f>COUNTIF(H3:H90,"*Failed*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="52">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="4"/>
       <c r="L10" s="10"/>
@@ -1755,30 +2734,64 @@
       <c r="T10" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <f>COUNTIF(H4:H90,"*Not*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+    <row r="11" spans="1:26" ht="65">
+      <c r="A11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13">
+        <v>42074</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="34">
+        <v>42074</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26">
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1788,11 +2801,11 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26">
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1802,11 +2815,11 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26">
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1816,11 +2829,11 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26">
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1830,11 +2843,11 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26">
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1844,11 +2857,11 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:21">
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1858,11 +2871,11 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:21">
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1872,11 +2885,11 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:21">
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1886,11 +2899,11 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:21">
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1900,11 +2913,11 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:21">
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1914,11 +2927,11 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:21">
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -1928,11 +2941,11 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:21">
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1942,11 +2955,11 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:21">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1956,11 +2969,11 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:21">
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="27"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1973,11 +2986,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:21">
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1989,16 +3002,16 @@
       <c r="T26" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="31">
         <f>COUNTIF(L2:L50,"*Minor*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:21">
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="27"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -2010,16 +3023,16 @@
       <c r="T27" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="31">
         <f>COUNTIF(L2:L7,"*Moderate*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:21">
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="27"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2031,16 +3044,16 @@
       <c r="T28" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="31">
         <f>COUNTIF(L2:L7,"*Major*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:21">
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="27"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2052,16 +3065,16 @@
       <c r="T29" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="31">
         <f>COUNTIF(L2:L7,"*Critical*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:21">
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -2073,16 +3086,16 @@
       <c r="T30" t="s">
         <v>38</v>
       </c>
-      <c r="U30" s="32">
+      <c r="U30" s="31">
         <f>COUNTIF(L2:L7,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:21">
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -2092,11 +3105,11 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:21">
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -2106,11 +3119,11 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:16">
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -2120,11 +3133,11 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:16">
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -2134,11 +3147,11 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:16">
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2148,11 +3161,11 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:16">
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2162,11 +3175,11 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:16">
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2176,11 +3189,11 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:16">
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2190,11 +3203,11 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:16">
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -2204,11 +3217,11 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:16">
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -2218,11 +3231,11 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:16">
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="27"/>
+      <c r="H41" s="26"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -2232,11 +3245,11 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:16">
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="27"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -2246,11 +3259,11 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:16">
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -2260,11 +3273,11 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:16">
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -2274,11 +3287,11 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:16">
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="27"/>
+      <c r="H45" s="26"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -2288,11 +3301,11 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:16">
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -2302,11 +3315,11 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:16">
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="27"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -2316,11 +3329,11 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:16">
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2330,11 +3343,11 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:16">
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="27"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -2344,11 +3357,11 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:16">
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="27"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -2358,11 +3371,11 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:16">
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="27"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -2372,11 +3385,11 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:16">
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="27"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -2386,11 +3399,11 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:16">
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="27"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -2400,11 +3413,11 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:16">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="27"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -2414,11 +3427,11 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:16">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="27"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2428,11 +3441,11 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:16">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="27"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2442,11 +3455,11 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:16">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="27"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2456,11 +3469,11 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:16">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -2470,11 +3483,11 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:16">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="27"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2484,11 +3497,11 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:16">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="27"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -2498,11 +3511,11 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:16">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="27"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -2512,11 +3525,11 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:16">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="27"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -2526,11 +3539,11 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:16">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="27"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -2540,11 +3553,11 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:16">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="27"/>
+      <c r="H64" s="26"/>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
@@ -2554,11 +3567,11 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:16">
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="27"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
@@ -2568,11 +3581,11 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:16">
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="27"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -2582,11 +3595,11 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:16">
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="27"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -2596,11 +3609,11 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:16">
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="27"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -2610,11 +3623,11 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:16">
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="27"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -2624,11 +3637,11 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:16">
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="27"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -2638,11 +3651,11 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:16">
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="27"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -2652,11 +3665,11 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:16">
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -2666,11 +3679,11 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:16">
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
-      <c r="H73" s="27"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -2680,11 +3693,11 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:16">
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="27"/>
+      <c r="H74" s="26"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -2694,11 +3707,11 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:16">
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -2708,11 +3721,11 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:16">
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
-      <c r="H76" s="27"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10"/>
@@ -2722,11 +3735,11 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:16">
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="27"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -2736,11 +3749,11 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:16">
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10"/>
@@ -2750,11 +3763,11 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:16">
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -2764,11 +3777,11 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:16">
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
-      <c r="H80" s="27"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -2778,11 +3791,11 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:16">
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="27"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -2792,11 +3805,11 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:16">
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="27"/>
+      <c r="H82" s="26"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -2806,11 +3819,11 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:16">
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="27"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -2820,11 +3833,11 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:16">
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="27"/>
+      <c r="H84" s="26"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
@@ -2834,11 +3847,11 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:16">
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="27"/>
+      <c r="H85" s="26"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -2848,11 +3861,11 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:16">
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="27"/>
+      <c r="H86" s="26"/>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -2862,11 +3875,11 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:16">
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
-      <c r="H87" s="27"/>
+      <c r="H87" s="26"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -2876,11 +3889,11 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:16">
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="27"/>
+      <c r="H88" s="26"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -2890,11 +3903,11 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:16">
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="27"/>
+      <c r="H89" s="26"/>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
@@ -2904,11 +3917,11 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:16">
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
-      <c r="H90" s="27"/>
+      <c r="H90" s="26"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -2918,11 +3931,11 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:16">
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="27"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -2932,11 +3945,11 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:16">
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="27"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -2946,11 +3959,11 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:16">
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="27"/>
+      <c r="H93" s="26"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -2960,11 +3973,11 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:16">
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="27"/>
+      <c r="H94" s="26"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -2974,11 +3987,11 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:16">
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
-      <c r="H95" s="27"/>
+      <c r="H95" s="26"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
@@ -2988,11 +4001,11 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:16">
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="27"/>
+      <c r="H96" s="26"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -3002,11 +4015,11 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:16">
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="26"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -3016,11 +4029,11 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:16">
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="26"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -3030,11 +4043,11 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:16">
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="27"/>
+      <c r="H99" s="26"/>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3044,11 +4057,11 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:16">
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
-      <c r="H100" s="27"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
@@ -3058,11 +4071,11 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:16">
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="27"/>
+      <c r="H101" s="26"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
@@ -3072,11 +4085,11 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:16">
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="27"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
@@ -3086,11 +4099,11 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:16">
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="27"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -3100,11 +4113,11 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:16">
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="27"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -3114,11 +4127,11 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:16">
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="27"/>
+      <c r="H105" s="26"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -3128,11 +4141,11 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:16">
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="27"/>
+      <c r="H106" s="26"/>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
@@ -3142,11 +4155,11 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:16">
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="27"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -3156,11 +4169,11 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:16">
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="27"/>
+      <c r="H108" s="26"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
@@ -3170,11 +4183,11 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:16">
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="27"/>
+      <c r="H109" s="26"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -3184,11 +4197,11 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:16">
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="27"/>
+      <c r="H110" s="26"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -3198,11 +4211,11 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:16">
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="27"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -3212,11 +4225,11 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:16">
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="27"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -3226,11 +4239,11 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16">
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="27"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
@@ -3240,11 +4253,11 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16">
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="26"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -3254,11 +4267,11 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16">
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
-      <c r="H115" s="27"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -3268,11 +4281,11 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16">
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
-      <c r="H116" s="27"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -3282,11 +4295,11 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:16">
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
-      <c r="H117" s="27"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -3296,11 +4309,11 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:16">
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
-      <c r="H118" s="27"/>
+      <c r="H118" s="26"/>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
@@ -3310,11 +4323,11 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16">
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="27"/>
+      <c r="H119" s="26"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -3324,11 +4337,11 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:16">
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
-      <c r="H120" s="27"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
@@ -3338,11 +4351,11 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:16">
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="27"/>
+      <c r="H121" s="26"/>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -3352,11 +4365,11 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:16">
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
-      <c r="H122" s="27"/>
+      <c r="H122" s="26"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -3366,11 +4379,11 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16">
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
-      <c r="H123" s="27"/>
+      <c r="H123" s="26"/>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -3380,11 +4393,11 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:16">
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
-      <c r="H124" s="27"/>
+      <c r="H124" s="26"/>
       <c r="I124" s="10"/>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -3394,11 +4407,11 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:16">
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
-      <c r="H125" s="27"/>
+      <c r="H125" s="26"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -3408,11 +4421,11 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:16">
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
-      <c r="H126" s="27"/>
+      <c r="H126" s="26"/>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
@@ -3422,11 +4435,11 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:16">
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
-      <c r="H127" s="27"/>
+      <c r="H127" s="26"/>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -3436,11 +4449,11 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:16">
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="27"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -3450,11 +4463,11 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:16">
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
-      <c r="H129" s="27"/>
+      <c r="H129" s="26"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -3464,11 +4477,11 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:16">
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="27"/>
+      <c r="H130" s="26"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -3478,11 +4491,11 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:16">
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
-      <c r="H131" s="27"/>
+      <c r="H131" s="26"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -3492,11 +4505,11 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:16">
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="27"/>
+      <c r="H132" s="26"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -3506,11 +4519,11 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:16">
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="27"/>
+      <c r="H133" s="26"/>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -3520,11 +4533,11 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:16">
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
-      <c r="H134" s="27"/>
+      <c r="H134" s="26"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -3534,11 +4547,11 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:16">
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
-      <c r="H135" s="27"/>
+      <c r="H135" s="26"/>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -3548,11 +4561,11 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:16">
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
-      <c r="H136" s="27"/>
+      <c r="H136" s="26"/>
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="10"/>
@@ -3562,11 +4575,11 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:16">
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
-      <c r="H137" s="27"/>
+      <c r="H137" s="26"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
@@ -3576,11 +4589,11 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:16">
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="27"/>
+      <c r="H138" s="26"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
       <c r="K138" s="10"/>
@@ -3590,11 +4603,11 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:16">
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="27"/>
+      <c r="H139" s="26"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -3604,11 +4617,11 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:16">
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="27"/>
+      <c r="H140" s="26"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -3618,11 +4631,11 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:16">
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="27"/>
+      <c r="H141" s="26"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -3632,11 +4645,11 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:16">
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="27"/>
+      <c r="H142" s="26"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -3646,11 +4659,11 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:16">
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="27"/>
+      <c r="H143" s="26"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -3660,11 +4673,11 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:16">
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="27"/>
+      <c r="H144" s="26"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
       <c r="K144" s="10"/>
@@ -3674,11 +4687,11 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:16">
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
-      <c r="H145" s="27"/>
+      <c r="H145" s="26"/>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -3688,11 +4701,11 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:16">
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="27"/>
+      <c r="H146" s="26"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -3702,11 +4715,11 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:16">
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="27"/>
+      <c r="H147" s="26"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -3716,11 +4729,11 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:16">
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
-      <c r="H148" s="27"/>
+      <c r="H148" s="26"/>
       <c r="I148" s="10"/>
       <c r="J148" s="10"/>
       <c r="K148" s="10"/>
@@ -3730,11 +4743,11 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="5:16">
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="27"/>
+      <c r="H149" s="26"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -3744,11 +4757,11 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="5:16">
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="27"/>
+      <c r="H150" s="26"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -3758,11 +4771,11 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:16">
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
-      <c r="H151" s="27"/>
+      <c r="H151" s="26"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -3772,11 +4785,11 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="5:16">
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
-      <c r="H152" s="27"/>
+      <c r="H152" s="26"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -3786,11 +4799,11 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="5:16">
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="27"/>
+      <c r="H153" s="26"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -3800,11 +4813,11 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="5:16">
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
-      <c r="H154" s="27"/>
+      <c r="H154" s="26"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -3814,11 +4827,11 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="5:16">
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
-      <c r="H155" s="27"/>
+      <c r="H155" s="26"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="10"/>
@@ -3828,11 +4841,11 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="5:16">
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
-      <c r="H156" s="27"/>
+      <c r="H156" s="26"/>
       <c r="I156" s="10"/>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
@@ -3842,11 +4855,11 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="5:16">
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
-      <c r="H157" s="27"/>
+      <c r="H157" s="26"/>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -3856,7 +4869,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="5:16">
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
@@ -3870,7 +4883,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="5:16">
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
@@ -3884,7 +4897,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="5:16">
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -3898,7 +4911,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="5:16">
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -3919,9 +4932,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -3951,46 +4964,49 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" ht="23">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1"/>
@@ -4003,14 +5019,24 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:13" ht="42">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1"/>
@@ -4019,12 +5045,22 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:13" ht="56">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4034,12 +5070,22 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:13" ht="56">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4049,12 +5095,22 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:13" ht="42">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4064,12 +5120,22 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:13" ht="42">
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4079,12 +5145,22 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:13" ht="56">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4094,12 +5170,22 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:13" ht="56">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4109,12 +5195,22 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:13" ht="56">
+      <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4124,12 +5220,22 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:13" ht="56">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4139,12 +5245,22 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:13" ht="56">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4154,7 +5270,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4169,7 +5285,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4184,7 +5300,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4199,7 +5315,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4214,7 +5330,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4229,7 +5345,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4244,7 +5360,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4259,7 +5375,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4276,6 +5392,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4287,14 +5409,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4308,8 +5430,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -4322,8 +5444,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
@@ -4336,8 +5458,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -4350,22 +5472,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4479,29 +5621,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 OrderReceipt.xlsx
+++ b/Testing Spreadsheet v1.0 OrderReceipt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-1240" yWindow="880" windowWidth="27640" windowHeight="13940" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15600" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -511,9 +511,6 @@
     <t>Individual prices are not shown for any item, only the total pricefor the order is.</t>
   </si>
   <si>
-    <t>OrderPage_DefectID_TCase_3</t>
-  </si>
-  <si>
     <t>To test that the order receipt contains invididual prices for each item that have been ordered</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>OrderPage_TConn_7</t>
   </si>
   <si>
-    <t>OrderPage_DefectID_TCase_5</t>
-  </si>
-  <si>
     <t>This works but it has failed due to the spec clearly saying that the collection time will be 20 minutes after ordering, when it I infact 30 minutes. This has been recorded through the automated Selenium test.</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>OrderPage_TCase_10</t>
   </si>
   <si>
-    <t>OrderPage_DefectID_TCase_10</t>
-  </si>
-  <si>
     <t>This is the same order reference as the prevois test case thererfore it is not unique, it is not critical or high as it will not lead to system crash or failure, it will just cause significant difficulties on collection</t>
   </si>
   <si>
@@ -662,6 +653,15 @@
   </si>
   <si>
     <t>To test that the system provides a unique order reference on the order receipt</t>
+  </si>
+  <si>
+    <t>OrderPage_1</t>
+  </si>
+  <si>
+    <t>OrderPage_2</t>
+  </si>
+  <si>
+    <t>OrderPage_3</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1435,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1445,7 +1444,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1455,7 +1453,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1520,7 +1517,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1617,11 +1613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129098200"/>
-        <c:axId val="2129101144"/>
+        <c:axId val="2090090136"/>
+        <c:axId val="2090087176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129098200"/>
+        <c:axId val="2090090136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129101144"/>
+        <c:crossAx val="2090087176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1638,7 +1634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129101144"/>
+        <c:axId val="2090087176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129098200"/>
+        <c:crossAx val="2090090136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2158,7 +2154,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -2175,7 +2171,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -2189,10 +2185,10 @@
     </row>
     <row r="8" spans="1:9" ht="42">
       <c r="A8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>59</v>
@@ -2206,10 +2202,10 @@
     </row>
     <row r="9" spans="1:9" ht="42">
       <c r="A9" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>59</v>
@@ -2220,7 +2216,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>63</v>
@@ -2234,10 +2230,10 @@
     </row>
     <row r="11" spans="1:9" ht="28">
       <c r="A11" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
@@ -2287,8 +2283,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2441,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>82</v>
@@ -2465,7 +2461,7 @@
         <v>66</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -2492,13 +2488,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>73</v>
@@ -2528,13 +2524,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>74</v>
@@ -2552,7 +2548,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
@@ -2567,7 +2563,7 @@
         <v>89</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P6" s="10"/>
     </row>
@@ -2576,13 +2572,13 @@
         <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>75</v>
@@ -2612,19 +2608,19 @@
     </row>
     <row r="8" spans="1:26" ht="52">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>6</v>
@@ -2655,19 +2651,19 @@
     </row>
     <row r="9" spans="1:26" ht="52">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -2698,19 +2694,19 @@
     </row>
     <row r="10" spans="1:26" ht="52">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -2741,19 +2737,19 @@
     </row>
     <row r="11" spans="1:26" ht="65">
       <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -2768,7 +2764,7 @@
         <v>66</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -2783,7 +2779,7 @@
         <v>89</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -4978,7 +4974,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5021,7 +5017,7 @@
     </row>
     <row r="2" spans="1:13" ht="42">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -5047,7 +5043,7 @@
     </row>
     <row r="3" spans="1:13" ht="56">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>71</v>
@@ -5072,13 +5068,13 @@
     </row>
     <row r="4" spans="1:13" ht="56">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -5097,16 +5093,16 @@
     </row>
     <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
@@ -5122,16 +5118,16 @@
     </row>
     <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>69</v>
@@ -5147,16 +5143,16 @@
     </row>
     <row r="7" spans="1:13" ht="56">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>69</v>
@@ -5172,16 +5168,16 @@
     </row>
     <row r="8" spans="1:13" ht="56">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
@@ -5197,16 +5193,16 @@
     </row>
     <row r="9" spans="1:13" ht="56">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
@@ -5222,16 +5218,16 @@
     </row>
     <row r="10" spans="1:13" ht="56">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>69</v>
@@ -5247,16 +5243,16 @@
     </row>
     <row r="11" spans="1:13" ht="56">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>69</v>
@@ -5493,21 +5489,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5621,15 +5608,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5638,7 +5626,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5652,4 +5640,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>